--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14850"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="EntityConfig" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>备注
+LCompType.Model = 101 --模型
+LCompType.CharacterController = 102 -- cc
+LCompType.Speed = 103 --速度
+LCompType.Rotation = 104 --方向
+LCompType.Gravity = 105 --重力
+LCompType.Position = 106 --位置
+LCompType.BillBoard = 200 --姓名版</t>
   </si>
   <si>
     <t>实体类型</t>
@@ -69,6 +76,24 @@
   </si>
   <si>
     <t>args2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>args3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>args4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>args5</t>
   </si>
   <si>
     <t>实体1</t>
@@ -122,8 +147,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +202,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,105 +276,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -261,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +480,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -462,6 +502,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,40 +540,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +564,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
@@ -1052,7 +1077,7 @@
     <col min="7" max="7" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1099,26 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1130,14 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1159,26 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,120 +1200,228 @@
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4">
         <v>10001</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="4">
+        <v>103</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>104</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>107</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <v>103</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>104</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>107</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4">
         <v>10001</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>103</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>104</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>107</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4">
         <v>10001</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
+        <v>103</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>104</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>107</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4">
         <v>10001</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="4">
+        <v>103</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>104</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>107</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,10 @@
     <t>实体组件</t>
   </si>
   <si>
+    <t>实体组件
+技能</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -96,10 +100,19 @@
     <t>args5</t>
   </si>
   <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>args6</t>
+  </si>
+  <si>
     <t>实体1</t>
   </si>
   <si>
     <t>2.6,0.3</t>
+  </si>
+  <si>
+    <t>100001,200001,200002,200003,200004,300001,300002</t>
   </si>
   <si>
     <t>实体2</t>
@@ -120,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +147,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,22 +177,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,53 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,15 +231,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,18 +282,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,41 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,16 +518,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,16 +577,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,138 +610,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -741,6 +757,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1075,353 +1097,404 @@
     <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="15" max="15" width="61.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>101</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>10001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>102</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5">
         <v>103</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>104</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>107</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>301</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>101</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>10001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>102</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5">
         <v>103</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>104</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>107</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>301</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>101</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>10001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>102</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
         <v>103</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>104</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>107</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>301</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>102</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="H8" s="5">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>104</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>107</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>301</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>101</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="5">
         <v>10001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="5">
         <v>102</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
         <v>103</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>104</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
         <v>107</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>301</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>101</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>102</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="4">
-        <v>103</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>104</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>107</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="EntityConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>id</t>
   </si>
@@ -32,18 +32,35 @@
     <t>实体类型</t>
   </si>
   <si>
-    <t xml:space="preserve">实体组件
-</t>
+    <t>实体组件
+《模型》</t>
   </si>
   <si>
     <t>组件参数</t>
   </si>
   <si>
-    <t>实体组件</t>
-  </si>
-  <si>
     <t>实体组件
-技能</t>
+《CC》</t>
+  </si>
+  <si>
+    <t>实体组件
+《速度》</t>
+  </si>
+  <si>
+    <t>实体组件
+《旋转》</t>
+  </si>
+  <si>
+    <t>实体组件
+《Anim》</t>
+  </si>
+  <si>
+    <t>实体组件
+《技能》</t>
+  </si>
+  <si>
+    <t>实体组件
+《姓名版》</t>
   </si>
   <si>
     <t>lua,sql</t>
@@ -106,6 +123,12 @@
     <t>args6</t>
   </si>
   <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>args7</t>
+  </si>
+  <si>
     <t>实体1</t>
   </si>
   <si>
@@ -115,13 +138,25 @@
     <t>100001,200001,200002,200003,200004,300001,300002</t>
   </si>
   <si>
+    <t>盘子脸</t>
+  </si>
+  <si>
     <t>实体2</t>
   </si>
   <si>
+    <t>扫地僧</t>
+  </si>
+  <si>
     <t>实体3</t>
   </si>
   <si>
+    <t>北乔峰</t>
+  </si>
+  <si>
     <t>实体4</t>
+  </si>
+  <si>
+    <t>南慕容</t>
   </si>
   <si>
     <t>实体5</t>
@@ -132,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,6 +182,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,7 +251,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,121 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +525,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,8 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,65 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,7 +1135,7 @@
     <col min="15" max="15" width="61.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:15">
+    <row r="1" ht="30" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,36 +1158,42 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
@@ -1167,107 +1208,121 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="7"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1282,7 +1337,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5">
         <v>103</v>
@@ -1306,15 +1361,21 @@
         <v>301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="P5" s="5">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1323,22 +1384,22 @@
         <v>101</v>
       </c>
       <c r="E6" s="5">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F6" s="5">
         <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -1353,15 +1414,21 @@
         <v>301</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="5">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1370,22 +1437,22 @@
         <v>101</v>
       </c>
       <c r="E7" s="5">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F7" s="5">
         <v>102</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -1400,15 +1467,21 @@
         <v>301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="P7" s="5">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1417,22 +1490,22 @@
         <v>101</v>
       </c>
       <c r="E8" s="5">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="F8" s="5">
         <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -1447,15 +1520,21 @@
         <v>301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="P8" s="5">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1464,22 +1543,22 @@
         <v>101</v>
       </c>
       <c r="E9" s="5">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="F9" s="5">
         <v>102</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -1494,7 +1573,13 @@
         <v>301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="P9" s="5">
+        <v>201</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,10 @@
 《姓名版》</t>
   </si>
   <si>
+    <t>实体组件
+《位置》</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -129,6 +133,12 @@
     <t>args7</t>
   </si>
   <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>args8</t>
+  </si>
+  <si>
     <t>实体1</t>
   </si>
   <si>
@@ -138,28 +148,46 @@
     <t>100001,200001,200002,200003,200004,300001,300002</t>
   </si>
   <si>
+    <t>盘子脸*主角</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>实体2</t>
+  </si>
+  <si>
+    <t>扫地僧*傻B</t>
+  </si>
+  <si>
+    <t>50,0,30</t>
+  </si>
+  <si>
+    <t>实体3</t>
+  </si>
+  <si>
+    <t>李康*2B</t>
+  </si>
+  <si>
+    <t>52,0,34</t>
+  </si>
+  <si>
+    <t>实体4</t>
+  </si>
+  <si>
+    <t>南慕容</t>
+  </si>
+  <si>
+    <t>100,0,102</t>
+  </si>
+  <si>
+    <t>实体5</t>
+  </si>
+  <si>
     <t>盘子脸</t>
   </si>
   <si>
-    <t>实体2</t>
-  </si>
-  <si>
-    <t>扫地僧</t>
-  </si>
-  <si>
-    <t>实体3</t>
-  </si>
-  <si>
-    <t>北乔峰</t>
-  </si>
-  <si>
-    <t>实体4</t>
-  </si>
-  <si>
-    <t>南慕容</t>
-  </si>
-  <si>
-    <t>实体5</t>
+    <t>100,0,103</t>
   </si>
 </sst>
 </file>
@@ -167,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,6 +210,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,14 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +240,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +262,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -243,30 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,30 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +352,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,19 +362,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,37 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,121 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +553,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,6 +595,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,15 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,30 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1133,9 +1161,10 @@
     <col min="4" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="15" max="15" width="61.5" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:17">
+    <row r="1" ht="30" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,13 +1216,19 @@
       <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
@@ -1210,119 +1245,133 @@
       <c r="O2" s="7"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="R3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1337,7 +1386,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5">
         <v>103</v>
@@ -1361,21 +1410,27 @@
         <v>301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P5" s="5">
         <v>201</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1390,16 +1445,16 @@
         <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -1414,21 +1469,27 @@
         <v>301</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P6" s="5">
         <v>201</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="R6" s="5">
+        <v>106</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1443,16 +1504,16 @@
         <v>102</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -1467,21 +1528,27 @@
         <v>301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P7" s="5">
         <v>201</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="R7" s="5">
+        <v>106</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1496,16 +1563,16 @@
         <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -1520,21 +1587,27 @@
         <v>301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P8" s="5">
         <v>201</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="R8" s="5">
+        <v>106</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1549,16 +1622,16 @@
         <v>102</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -1573,13 +1646,19 @@
         <v>301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P9" s="5">
         <v>201</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="R9" s="5">
+        <v>106</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,10 @@
 《位置》</t>
   </si>
   <si>
+    <t>实体组件
+《AI》</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -139,6 +143,12 @@
     <t>args8</t>
   </si>
   <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>args9</t>
+  </si>
+  <si>
     <t>实体1</t>
   </si>
   <si>
@@ -160,7 +170,10 @@
     <t>扫地僧*傻B</t>
   </si>
   <si>
-    <t>50,0,30</t>
+    <t>10,0,10</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>实体3</t>
@@ -169,7 +182,10 @@
     <t>李康*2B</t>
   </si>
   <si>
-    <t>52,0,34</t>
+    <t>-10,0,-10</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>实体4</t>
@@ -181,6 +197,9 @@
     <t>100,0,102</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>实体5</t>
   </si>
   <si>
@@ -188,6 +207,9 @@
   </si>
   <si>
     <t>100,0,103</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -197,8 +219,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -210,21 +232,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +315,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,48 +331,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,22 +354,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,6 +384,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,6 +480,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,168 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,24 +580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,15 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,17 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +642,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,145 +683,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,11 +1182,11 @@
     <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="61.5" style="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:19">
+    <row r="1" ht="30" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,13 +1244,19 @@
       <c r="S1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
@@ -1247,131 +1275,145 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="R3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="T3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1386,7 +1428,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5">
         <v>103</v>
@@ -1410,27 +1452,33 @@
         <v>301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P5" s="5">
         <v>201</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1445,10 +1493,10 @@
         <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1469,27 +1517,33 @@
         <v>301</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6" s="5">
         <v>201</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R6" s="5">
         <v>106</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="T6" s="5">
+        <v>401</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1504,10 +1558,10 @@
         <v>102</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -1528,27 +1582,33 @@
         <v>301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P7" s="5">
         <v>201</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R7" s="5">
         <v>106</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="T7" s="5">
+        <v>401</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1563,10 +1623,10 @@
         <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>3</v>
@@ -1587,27 +1647,33 @@
         <v>301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P8" s="5">
         <v>201</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R8" s="5">
         <v>106</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="T8" s="5">
+        <v>401</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1622,10 +1688,10 @@
         <v>102</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>3</v>
@@ -1646,19 +1712,25 @@
         <v>301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P9" s="5">
         <v>201</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R9" s="5">
         <v>106</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="T9" s="5">
+        <v>401</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/EntityConfig.xlsx
@@ -179,7 +179,7 @@
     <t>实体3</t>
   </si>
   <si>
-    <t>李康*2B</t>
+    <t>新凯*男神</t>
   </si>
   <si>
     <t>-10,0,-10</t>
@@ -217,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,6 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,7 +246,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +275,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -261,14 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -278,21 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,15 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,52 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,43 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,139 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,11 +580,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +602,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,15 +657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,39 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,145 +683,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
